--- a/Evaluation_V2/Bareme.xlsx
+++ b/Evaluation_V2/Bareme.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Enseignement\GitHub\PSI\Evaluation_V2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{409CD16F-F2A6-4CF6-88FD-FD1BB529F8BB}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{93C96112-7253-4607-AE4F-B3FE56A3AFE7}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6945" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bareme" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="320">
   <si>
     <t>PCSI</t>
   </si>
@@ -1820,9 +1820,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AJ144"/>
+  <dimension ref="A1:AJ145"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AB18" sqref="AB18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1942,112 +1944,145 @@
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>284</v>
       </c>
       <c r="B2" t="s">
+        <v>285</v>
+      </c>
+      <c r="C2" t="s">
+        <v>286</v>
+      </c>
+      <c r="D2">
+        <f>SUM(D3:D145)</f>
+        <v>3</v>
+      </c>
+      <c r="E2">
+        <f t="shared" ref="E2:AJ2" si="0">SUM(E3:E145)</f>
+        <v>3</v>
+      </c>
+      <c r="F2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="G2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="H2">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="I2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="J2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="K2">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="L2">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="M2">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="N2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="O2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="P2">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="Q2">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="R2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="S2">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-      <c r="R2">
-        <v>0</v>
-      </c>
-      <c r="S2">
-        <v>0</v>
-      </c>
       <c r="T2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
       <c r="Y2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="Z2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
       <c r="AA2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="AB2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
       <c r="AC2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="AD2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
       <c r="AE2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="AF2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
       <c r="AG2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="AH2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
       <c r="AI2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="AJ2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.25">
@@ -2055,16 +2090,16 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -2165,19 +2200,19 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -2275,10 +2310,10 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -2287,10 +2322,10 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -2385,10 +2420,10 @@
         <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -2400,10 +2435,10 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -2495,10 +2530,10 @@
         <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -2513,10 +2548,10 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -2605,10 +2640,10 @@
         <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -2626,10 +2661,10 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -2715,10 +2750,10 @@
         <v>0</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -2742,7 +2777,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -2825,10 +2860,10 @@
         <v>0</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -2855,7 +2890,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -2935,10 +2970,10 @@
         <v>0</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -2965,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -3045,10 +3080,10 @@
         <v>0</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -3078,10 +3113,10 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -3155,10 +3190,10 @@
         <v>0</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -3191,10 +3226,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P13">
         <v>0</v>
@@ -3265,10 +3300,10 @@
         <v>0</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -3307,7 +3342,7 @@
         <v>0</v>
       </c>
       <c r="P14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14">
         <v>0</v>
@@ -3375,10 +3410,10 @@
         <v>0</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -3417,10 +3452,10 @@
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R15">
         <v>0</v>
@@ -3485,10 +3520,10 @@
         <v>0</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C16" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -3530,10 +3565,10 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S16">
         <v>0</v>
@@ -3595,10 +3630,10 @@
         <v>0</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C17" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -3643,10 +3678,10 @@
         <v>0</v>
       </c>
       <c r="R17">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T17">
         <v>0</v>
@@ -3702,13 +3737,13 @@
     </row>
     <row r="18" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C18" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -3756,10 +3791,10 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U18">
         <v>0</v>
@@ -3815,10 +3850,10 @@
         <v>34</v>
       </c>
       <c r="B19" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C19" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -3869,10 +3904,10 @@
         <v>0</v>
       </c>
       <c r="T19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V19">
         <v>0</v>
@@ -3925,10 +3960,10 @@
         <v>34</v>
       </c>
       <c r="B20" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C20" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -3982,10 +4017,10 @@
         <v>0</v>
       </c>
       <c r="U20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W20">
         <v>0</v>
@@ -4035,10 +4070,10 @@
         <v>34</v>
       </c>
       <c r="B21" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C21" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -4095,10 +4130,10 @@
         <v>0</v>
       </c>
       <c r="V21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X21">
         <v>0</v>
@@ -4145,10 +4180,10 @@
         <v>34</v>
       </c>
       <c r="B22" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C22" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -4208,10 +4243,10 @@
         <v>0</v>
       </c>
       <c r="W22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y22">
         <v>0</v>
@@ -4255,10 +4290,10 @@
         <v>34</v>
       </c>
       <c r="B23" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C23" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -4321,10 +4356,10 @@
         <v>0</v>
       </c>
       <c r="X23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z23">
         <v>0</v>
@@ -4365,10 +4400,10 @@
         <v>34</v>
       </c>
       <c r="B24" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C24" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -4434,10 +4469,10 @@
         <v>0</v>
       </c>
       <c r="Y24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA24">
         <v>0</v>
@@ -4475,10 +4510,10 @@
         <v>34</v>
       </c>
       <c r="B25" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C25" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -4547,10 +4582,10 @@
         <v>0</v>
       </c>
       <c r="Z25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB25">
         <v>0</v>
@@ -4582,13 +4617,13 @@
     </row>
     <row r="26" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="B26" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C26" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -4660,10 +4695,10 @@
         <v>0</v>
       </c>
       <c r="AA26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC26">
         <v>0</v>
@@ -4692,13 +4727,13 @@
     </row>
     <row r="27" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="B27" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C27" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -4773,10 +4808,10 @@
         <v>0</v>
       </c>
       <c r="AB27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD27">
         <v>0</v>
@@ -4802,13 +4837,13 @@
     </row>
     <row r="28" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="B28" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C28" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -4886,10 +4921,10 @@
         <v>0</v>
       </c>
       <c r="AC28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE28">
         <v>0</v>
@@ -4912,13 +4947,13 @@
     </row>
     <row r="29" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="B29" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C29" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -4999,10 +5034,10 @@
         <v>0</v>
       </c>
       <c r="AD29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF29">
         <v>0</v>
@@ -5022,13 +5057,13 @@
     </row>
     <row r="30" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="B30" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C30" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -5112,10 +5147,10 @@
         <v>0</v>
       </c>
       <c r="AE30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG30">
         <v>0</v>
@@ -5135,10 +5170,10 @@
         <v>0</v>
       </c>
       <c r="B31" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C31" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -5225,10 +5260,10 @@
         <v>0</v>
       </c>
       <c r="AF31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH31">
         <v>0</v>
@@ -5242,13 +5277,13 @@
     </row>
     <row r="32" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="B32" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C32" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -5338,10 +5373,10 @@
         <v>0</v>
       </c>
       <c r="AG32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI32">
         <v>0</v>
@@ -5352,13 +5387,13 @@
     </row>
     <row r="33" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="B33" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C33" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -5451,10 +5486,10 @@
         <v>0</v>
       </c>
       <c r="AH33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ33">
         <v>0</v>
@@ -5462,13 +5497,13 @@
     </row>
     <row r="34" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="B34" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C34" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -5564,10 +5599,10 @@
         <v>0</v>
       </c>
       <c r="AI34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ34">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:36" x14ac:dyDescent="0.25">
@@ -5575,126 +5610,126 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C35" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>0</v>
+      </c>
+      <c r="R35">
+        <v>0</v>
+      </c>
+      <c r="S35">
+        <v>0</v>
+      </c>
+      <c r="T35">
+        <v>0</v>
+      </c>
+      <c r="U35">
+        <v>0</v>
+      </c>
+      <c r="V35">
+        <v>0</v>
+      </c>
+      <c r="W35">
+        <v>0</v>
+      </c>
+      <c r="X35">
+        <v>0</v>
+      </c>
+      <c r="Y35">
+        <v>0</v>
+      </c>
+      <c r="Z35">
+        <v>0</v>
+      </c>
+      <c r="AA35">
+        <v>0</v>
+      </c>
+      <c r="AB35">
+        <v>0</v>
+      </c>
+      <c r="AC35">
+        <v>0</v>
+      </c>
+      <c r="AD35">
+        <v>0</v>
+      </c>
+      <c r="AE35">
+        <v>0</v>
+      </c>
+      <c r="AF35">
+        <v>0</v>
+      </c>
+      <c r="AG35">
+        <v>0</v>
+      </c>
+      <c r="AH35">
+        <v>0</v>
+      </c>
+      <c r="AI35">
+        <v>0</v>
+      </c>
+      <c r="AJ35">
         <v>1</v>
-      </c>
-      <c r="E35">
-        <v>0</v>
-      </c>
-      <c r="F35">
-        <v>0</v>
-      </c>
-      <c r="G35">
-        <v>0</v>
-      </c>
-      <c r="H35">
-        <v>0</v>
-      </c>
-      <c r="I35">
-        <v>0</v>
-      </c>
-      <c r="J35">
-        <v>0</v>
-      </c>
-      <c r="K35">
-        <v>0</v>
-      </c>
-      <c r="L35">
-        <v>0</v>
-      </c>
-      <c r="M35">
-        <v>0</v>
-      </c>
-      <c r="N35">
-        <v>0</v>
-      </c>
-      <c r="O35">
-        <v>0</v>
-      </c>
-      <c r="P35">
-        <v>0</v>
-      </c>
-      <c r="Q35">
-        <v>0</v>
-      </c>
-      <c r="R35">
-        <v>0</v>
-      </c>
-      <c r="S35">
-        <v>0</v>
-      </c>
-      <c r="T35">
-        <v>0</v>
-      </c>
-      <c r="U35">
-        <v>0</v>
-      </c>
-      <c r="V35">
-        <v>0</v>
-      </c>
-      <c r="W35">
-        <v>0</v>
-      </c>
-      <c r="X35">
-        <v>0</v>
-      </c>
-      <c r="Y35">
-        <v>0</v>
-      </c>
-      <c r="Z35">
-        <v>0</v>
-      </c>
-      <c r="AA35">
-        <v>0</v>
-      </c>
-      <c r="AB35">
-        <v>0</v>
-      </c>
-      <c r="AC35">
-        <v>0</v>
-      </c>
-      <c r="AD35">
-        <v>0</v>
-      </c>
-      <c r="AE35">
-        <v>0</v>
-      </c>
-      <c r="AF35">
-        <v>0</v>
-      </c>
-      <c r="AG35">
-        <v>0</v>
-      </c>
-      <c r="AH35">
-        <v>0</v>
-      </c>
-      <c r="AI35">
-        <v>0</v>
-      </c>
-      <c r="AJ35">
-        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C36" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D36">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F36">
         <v>0</v>
@@ -5795,19 +5830,19 @@
         <v>0</v>
       </c>
       <c r="B37" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C37" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D37">
         <v>0</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -5905,10 +5940,10 @@
         <v>0</v>
       </c>
       <c r="B38" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C38" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -5917,10 +5952,10 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H38">
         <v>0</v>
@@ -6012,13 +6047,13 @@
     </row>
     <row r="39" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="B39" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C39" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D39">
         <v>0</v>
@@ -6030,10 +6065,10 @@
         <v>0</v>
       </c>
       <c r="G39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39">
         <v>0</v>
@@ -6122,13 +6157,13 @@
     </row>
     <row r="40" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="B40" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C40" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D40">
         <v>0</v>
@@ -6143,10 +6178,10 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J40">
         <v>0</v>
@@ -6235,10 +6270,10 @@
         <v>0</v>
       </c>
       <c r="B41" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C41" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -6256,10 +6291,10 @@
         <v>0</v>
       </c>
       <c r="I41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K41">
         <v>0</v>
@@ -6345,10 +6380,10 @@
         <v>0</v>
       </c>
       <c r="B42" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C42" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -6369,10 +6404,10 @@
         <v>0</v>
       </c>
       <c r="J42">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L42">
         <v>0</v>
@@ -6452,13 +6487,13 @@
     </row>
     <row r="43" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="B43" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C43" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D43">
         <v>0</v>
@@ -6482,10 +6517,10 @@
         <v>0</v>
       </c>
       <c r="K43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M43">
         <v>0</v>
@@ -6565,10 +6600,10 @@
         <v>34</v>
       </c>
       <c r="B44" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C44" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -6595,10 +6630,10 @@
         <v>0</v>
       </c>
       <c r="L44">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N44">
         <v>0</v>
@@ -6675,10 +6710,10 @@
         <v>34</v>
       </c>
       <c r="B45" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C45" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -6708,10 +6743,10 @@
         <v>0</v>
       </c>
       <c r="M45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O45">
         <v>0</v>
@@ -6785,10 +6820,10 @@
         <v>34</v>
       </c>
       <c r="B46" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C46" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -6821,10 +6856,10 @@
         <v>0</v>
       </c>
       <c r="N46">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P46">
         <v>0</v>
@@ -6895,10 +6930,10 @@
         <v>34</v>
       </c>
       <c r="B47" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C47" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -6934,10 +6969,10 @@
         <v>0</v>
       </c>
       <c r="O47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q47">
         <v>0</v>
@@ -7005,10 +7040,10 @@
         <v>34</v>
       </c>
       <c r="B48" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C48" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D48">
         <v>0</v>
@@ -7047,10 +7082,10 @@
         <v>0</v>
       </c>
       <c r="P48">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R48">
         <v>0</v>
@@ -7115,10 +7150,10 @@
         <v>34</v>
       </c>
       <c r="B49" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C49" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D49">
         <v>0</v>
@@ -7160,10 +7195,10 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S49">
         <v>0</v>
@@ -7225,10 +7260,10 @@
         <v>34</v>
       </c>
       <c r="B50" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C50" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D50">
         <v>0</v>
@@ -7273,10 +7308,10 @@
         <v>0</v>
       </c>
       <c r="R50">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T50">
         <v>0</v>
@@ -7335,10 +7370,10 @@
         <v>34</v>
       </c>
       <c r="B51" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C51" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D51">
         <v>0</v>
@@ -7386,10 +7421,10 @@
         <v>0</v>
       </c>
       <c r="S51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U51">
         <v>0</v>
@@ -7445,10 +7480,10 @@
         <v>34</v>
       </c>
       <c r="B52" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C52" t="s">
-        <v>37</v>
+        <v>103</v>
       </c>
       <c r="D52">
         <v>0</v>
@@ -7499,10 +7534,10 @@
         <v>0</v>
       </c>
       <c r="T52">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V52">
         <v>0</v>
@@ -7555,10 +7590,10 @@
         <v>34</v>
       </c>
       <c r="B53" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C53" t="s">
-        <v>106</v>
+        <v>37</v>
       </c>
       <c r="D53">
         <v>0</v>
@@ -7612,10 +7647,10 @@
         <v>0</v>
       </c>
       <c r="U53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W53">
         <v>0</v>
@@ -7665,10 +7700,10 @@
         <v>34</v>
       </c>
       <c r="B54" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C54" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D54">
         <v>0</v>
@@ -7725,10 +7760,10 @@
         <v>0</v>
       </c>
       <c r="V54">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X54">
         <v>0</v>
@@ -7775,10 +7810,10 @@
         <v>34</v>
       </c>
       <c r="B55" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C55" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D55">
         <v>0</v>
@@ -7838,10 +7873,10 @@
         <v>0</v>
       </c>
       <c r="W55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y55">
         <v>0</v>
@@ -7882,13 +7917,13 @@
     </row>
     <row r="56" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="B56" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C56" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D56">
         <v>0</v>
@@ -7951,10 +7986,10 @@
         <v>0</v>
       </c>
       <c r="X56">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z56">
         <v>0</v>
@@ -7995,10 +8030,10 @@
         <v>0</v>
       </c>
       <c r="B57" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C57" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D57">
         <v>0</v>
@@ -8064,10 +8099,10 @@
         <v>0</v>
       </c>
       <c r="Y57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA57">
         <v>0</v>
@@ -8105,10 +8140,10 @@
         <v>0</v>
       </c>
       <c r="B58" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C58" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D58">
         <v>0</v>
@@ -8177,10 +8212,10 @@
         <v>0</v>
       </c>
       <c r="Z58">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB58">
         <v>0</v>
@@ -8215,10 +8250,10 @@
         <v>0</v>
       </c>
       <c r="B59" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C59" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D59">
         <v>0</v>
@@ -8290,10 +8325,10 @@
         <v>0</v>
       </c>
       <c r="AA59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC59">
         <v>0</v>
@@ -8325,10 +8360,10 @@
         <v>0</v>
       </c>
       <c r="B60" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C60" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D60">
         <v>0</v>
@@ -8403,10 +8438,10 @@
         <v>0</v>
       </c>
       <c r="AB60">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD60">
         <v>0</v>
@@ -8435,10 +8470,10 @@
         <v>0</v>
       </c>
       <c r="B61" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C61" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D61">
         <v>0</v>
@@ -8516,10 +8551,10 @@
         <v>0</v>
       </c>
       <c r="AC61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE61">
         <v>0</v>
@@ -8542,13 +8577,13 @@
     </row>
     <row r="62" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="B62" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C62" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D62">
         <v>0</v>
@@ -8629,10 +8664,10 @@
         <v>0</v>
       </c>
       <c r="AD62">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF62">
         <v>0</v>
@@ -8655,10 +8690,10 @@
         <v>34</v>
       </c>
       <c r="B63" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C63" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D63">
         <v>0</v>
@@ -8742,10 +8777,10 @@
         <v>0</v>
       </c>
       <c r="AE63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG63">
         <v>0</v>
@@ -8765,10 +8800,10 @@
         <v>34</v>
       </c>
       <c r="B64" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C64" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D64">
         <v>0</v>
@@ -8855,10 +8890,10 @@
         <v>0</v>
       </c>
       <c r="AF64">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH64">
         <v>0</v>
@@ -8875,10 +8910,10 @@
         <v>34</v>
       </c>
       <c r="B65" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C65" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D65">
         <v>0</v>
@@ -8968,10 +9003,10 @@
         <v>0</v>
       </c>
       <c r="AG65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI65">
         <v>0</v>
@@ -8982,13 +9017,13 @@
     </row>
     <row r="66" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="B66" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C66" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D66">
         <v>0</v>
@@ -9081,10 +9116,10 @@
         <v>0</v>
       </c>
       <c r="AH66">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ66">
         <v>0</v>
@@ -9095,10 +9130,10 @@
         <v>0</v>
       </c>
       <c r="B67" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C67" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D67">
         <v>0</v>
@@ -9194,10 +9229,10 @@
         <v>0</v>
       </c>
       <c r="AI67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ67">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:36" x14ac:dyDescent="0.25">
@@ -9205,13 +9240,13 @@
         <v>0</v>
       </c>
       <c r="B68" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C68" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -9307,7 +9342,7 @@
         <v>0</v>
       </c>
       <c r="AJ68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:36" x14ac:dyDescent="0.25">
@@ -9315,16 +9350,16 @@
         <v>0</v>
       </c>
       <c r="B69" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C69" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D69">
         <v>0</v>
       </c>
       <c r="E69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F69">
         <v>0</v>
@@ -9425,10 +9460,10 @@
         <v>0</v>
       </c>
       <c r="B70" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C70" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D70">
         <v>0</v>
@@ -9437,7 +9472,7 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G70">
         <v>0</v>
@@ -9532,13 +9567,13 @@
     </row>
     <row r="71" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="B71" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C71" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D71">
         <v>0</v>
@@ -9550,7 +9585,7 @@
         <v>0</v>
       </c>
       <c r="G71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H71">
         <v>0</v>
@@ -9642,13 +9677,13 @@
     </row>
     <row r="72" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="B72" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C72" t="s">
-        <v>112</v>
+        <v>142</v>
       </c>
       <c r="D72">
         <v>0</v>
@@ -9663,7 +9698,7 @@
         <v>0</v>
       </c>
       <c r="H72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72">
         <v>0</v>
@@ -9755,10 +9790,10 @@
         <v>0</v>
       </c>
       <c r="B73" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C73" t="s">
-        <v>145</v>
+        <v>112</v>
       </c>
       <c r="D73">
         <v>0</v>
@@ -9776,7 +9811,7 @@
         <v>0</v>
       </c>
       <c r="I73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J73">
         <v>0</v>
@@ -9865,10 +9900,10 @@
         <v>0</v>
       </c>
       <c r="B74" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C74" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D74">
         <v>0</v>
@@ -9889,7 +9924,7 @@
         <v>0</v>
       </c>
       <c r="J74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K74">
         <v>0</v>
@@ -9975,10 +10010,10 @@
         <v>0</v>
       </c>
       <c r="B75" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C75" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D75">
         <v>0</v>
@@ -10002,7 +10037,7 @@
         <v>0</v>
       </c>
       <c r="K75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L75">
         <v>0</v>
@@ -10082,13 +10117,13 @@
     </row>
     <row r="76" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="B76" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C76" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D76">
         <v>0</v>
@@ -10115,7 +10150,7 @@
         <v>0</v>
       </c>
       <c r="L76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M76">
         <v>0</v>
@@ -10195,10 +10230,10 @@
         <v>34</v>
       </c>
       <c r="B77" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C77" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D77">
         <v>0</v>
@@ -10228,7 +10263,7 @@
         <v>0</v>
       </c>
       <c r="M77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N77">
         <v>0</v>
@@ -10305,10 +10340,10 @@
         <v>34</v>
       </c>
       <c r="B78" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C78" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D78">
         <v>0</v>
@@ -10341,7 +10376,7 @@
         <v>0</v>
       </c>
       <c r="N78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O78">
         <v>0</v>
@@ -10415,10 +10450,10 @@
         <v>34</v>
       </c>
       <c r="B79" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C79" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D79">
         <v>0</v>
@@ -10454,7 +10489,7 @@
         <v>0</v>
       </c>
       <c r="O79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P79">
         <v>0</v>
@@ -10525,10 +10560,10 @@
         <v>34</v>
       </c>
       <c r="B80" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C80" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D80">
         <v>0</v>
@@ -10567,7 +10602,7 @@
         <v>0</v>
       </c>
       <c r="P80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q80">
         <v>0</v>
@@ -10635,10 +10670,10 @@
         <v>34</v>
       </c>
       <c r="B81" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C81" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D81">
         <v>0</v>
@@ -10680,7 +10715,7 @@
         <v>0</v>
       </c>
       <c r="Q81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R81">
         <v>0</v>
@@ -10742,13 +10777,13 @@
     </row>
     <row r="82" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="B82" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C82" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D82">
         <v>0</v>
@@ -10793,7 +10828,7 @@
         <v>0</v>
       </c>
       <c r="R82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S82">
         <v>0</v>
@@ -10855,10 +10890,10 @@
         <v>0</v>
       </c>
       <c r="B83" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C83" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D83">
         <v>0</v>
@@ -10906,7 +10941,7 @@
         <v>0</v>
       </c>
       <c r="S83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T83">
         <v>0</v>
@@ -10965,10 +11000,10 @@
         <v>0</v>
       </c>
       <c r="B84" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C84" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D84">
         <v>0</v>
@@ -11019,7 +11054,7 @@
         <v>0</v>
       </c>
       <c r="T84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U84">
         <v>0</v>
@@ -11075,10 +11110,10 @@
         <v>0</v>
       </c>
       <c r="B85" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C85" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D85">
         <v>0</v>
@@ -11132,7 +11167,7 @@
         <v>0</v>
       </c>
       <c r="U85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V85">
         <v>0</v>
@@ -11185,10 +11220,10 @@
         <v>0</v>
       </c>
       <c r="B86" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C86" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D86">
         <v>0</v>
@@ -11245,7 +11280,7 @@
         <v>0</v>
       </c>
       <c r="V86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W86">
         <v>0</v>
@@ -11295,10 +11330,10 @@
         <v>0</v>
       </c>
       <c r="B87" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C87" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D87">
         <v>0</v>
@@ -11358,7 +11393,7 @@
         <v>0</v>
       </c>
       <c r="W87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X87">
         <v>0</v>
@@ -11405,10 +11440,10 @@
         <v>0</v>
       </c>
       <c r="B88" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C88" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D88">
         <v>0</v>
@@ -11471,7 +11506,7 @@
         <v>0</v>
       </c>
       <c r="X88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y88">
         <v>0</v>
@@ -11515,10 +11550,10 @@
         <v>0</v>
       </c>
       <c r="B89" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C89" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D89">
         <v>0</v>
@@ -11584,7 +11619,7 @@
         <v>0</v>
       </c>
       <c r="Y89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z89">
         <v>0</v>
@@ -11625,10 +11660,10 @@
         <v>0</v>
       </c>
       <c r="B90" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C90" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D90">
         <v>0</v>
@@ -11697,7 +11732,7 @@
         <v>0</v>
       </c>
       <c r="Z90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA90">
         <v>0</v>
@@ -11735,10 +11770,10 @@
         <v>0</v>
       </c>
       <c r="B91" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C91" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D91">
         <v>0</v>
@@ -11810,7 +11845,7 @@
         <v>0</v>
       </c>
       <c r="AA91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB91">
         <v>0</v>
@@ -11845,10 +11880,10 @@
         <v>0</v>
       </c>
       <c r="B92" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C92" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D92">
         <v>0</v>
@@ -11923,7 +11958,7 @@
         <v>0</v>
       </c>
       <c r="AB92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC92">
         <v>0</v>
@@ -11955,10 +11990,10 @@
         <v>0</v>
       </c>
       <c r="B93" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C93" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D93">
         <v>0</v>
@@ -12036,7 +12071,7 @@
         <v>0</v>
       </c>
       <c r="AC93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD93">
         <v>0</v>
@@ -12065,10 +12100,10 @@
         <v>0</v>
       </c>
       <c r="B94" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C94" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D94">
         <v>0</v>
@@ -12149,7 +12184,7 @@
         <v>0</v>
       </c>
       <c r="AD94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE94">
         <v>0</v>
@@ -12175,10 +12210,10 @@
         <v>0</v>
       </c>
       <c r="B95" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C95" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D95">
         <v>0</v>
@@ -12262,7 +12297,7 @@
         <v>0</v>
       </c>
       <c r="AE95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF95">
         <v>0</v>
@@ -12285,10 +12320,10 @@
         <v>0</v>
       </c>
       <c r="B96" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C96" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D96">
         <v>0</v>
@@ -12375,7 +12410,7 @@
         <v>0</v>
       </c>
       <c r="AF96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG96">
         <v>0</v>
@@ -12392,13 +12427,13 @@
     </row>
     <row r="97" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="B97" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C97" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D97">
         <v>0</v>
@@ -12488,7 +12523,7 @@
         <v>0</v>
       </c>
       <c r="AG97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH97">
         <v>0</v>
@@ -12505,10 +12540,10 @@
         <v>34</v>
       </c>
       <c r="B98" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C98" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D98">
         <v>0</v>
@@ -12601,7 +12636,7 @@
         <v>0</v>
       </c>
       <c r="AH98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI98">
         <v>0</v>
@@ -12615,10 +12650,10 @@
         <v>34</v>
       </c>
       <c r="B99" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C99" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D99">
         <v>0</v>
@@ -12714,7 +12749,7 @@
         <v>0</v>
       </c>
       <c r="AI99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ99">
         <v>0</v>
@@ -12722,13 +12757,13 @@
     </row>
     <row r="100" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="B100" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C100" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D100">
         <v>0</v>
@@ -12827,7 +12862,7 @@
         <v>0</v>
       </c>
       <c r="AJ100">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:36" x14ac:dyDescent="0.25">
@@ -12835,13 +12870,13 @@
         <v>0</v>
       </c>
       <c r="B101" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C101" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E101">
         <v>0</v>
@@ -12945,16 +12980,16 @@
         <v>0</v>
       </c>
       <c r="B102" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C102" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D102">
         <v>0</v>
       </c>
       <c r="E102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F102">
         <v>0</v>
@@ -13055,10 +13090,10 @@
         <v>0</v>
       </c>
       <c r="B103" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C103" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D103">
         <v>0</v>
@@ -13067,7 +13102,7 @@
         <v>0</v>
       </c>
       <c r="F103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G103">
         <v>0</v>
@@ -13165,10 +13200,10 @@
         <v>0</v>
       </c>
       <c r="B104" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C104" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D104">
         <v>0</v>
@@ -13180,7 +13215,7 @@
         <v>0</v>
       </c>
       <c r="G104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H104">
         <v>0</v>
@@ -13275,10 +13310,10 @@
         <v>0</v>
       </c>
       <c r="B105" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C105" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D105">
         <v>0</v>
@@ -13293,7 +13328,7 @@
         <v>0</v>
       </c>
       <c r="H105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I105">
         <v>0</v>
@@ -13385,10 +13420,10 @@
         <v>0</v>
       </c>
       <c r="B106" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C106" t="s">
-        <v>29</v>
+        <v>209</v>
       </c>
       <c r="D106">
         <v>0</v>
@@ -13406,7 +13441,7 @@
         <v>0</v>
       </c>
       <c r="I106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J106">
         <v>0</v>
@@ -13495,10 +13530,10 @@
         <v>0</v>
       </c>
       <c r="B107" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C107" t="s">
-        <v>212</v>
+        <v>29</v>
       </c>
       <c r="D107">
         <v>0</v>
@@ -13519,7 +13554,7 @@
         <v>0</v>
       </c>
       <c r="J107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K107">
         <v>0</v>
@@ -13605,10 +13640,10 @@
         <v>0</v>
       </c>
       <c r="B108" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C108" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D108">
         <v>0</v>
@@ -13632,7 +13667,7 @@
         <v>0</v>
       </c>
       <c r="K108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L108">
         <v>0</v>
@@ -13712,13 +13747,13 @@
     </row>
     <row r="109" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="B109" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C109" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D109">
         <v>0</v>
@@ -13745,7 +13780,7 @@
         <v>0</v>
       </c>
       <c r="L109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M109">
         <v>0</v>
@@ -13825,10 +13860,10 @@
         <v>34</v>
       </c>
       <c r="B110" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C110" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D110">
         <v>0</v>
@@ -13858,7 +13893,7 @@
         <v>0</v>
       </c>
       <c r="M110">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N110">
         <v>0</v>
@@ -13935,10 +13970,10 @@
         <v>34</v>
       </c>
       <c r="B111" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C111" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D111">
         <v>0</v>
@@ -13971,7 +14006,7 @@
         <v>0</v>
       </c>
       <c r="N111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O111">
         <v>0</v>
@@ -14045,7 +14080,7 @@
         <v>34</v>
       </c>
       <c r="B112" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C112" t="s">
         <v>220</v>
@@ -14084,7 +14119,7 @@
         <v>0</v>
       </c>
       <c r="O112">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P112">
         <v>0</v>
@@ -14155,10 +14190,10 @@
         <v>34</v>
       </c>
       <c r="B113" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C113" t="s">
-        <v>193</v>
+        <v>220</v>
       </c>
       <c r="D113">
         <v>0</v>
@@ -14197,7 +14232,7 @@
         <v>0</v>
       </c>
       <c r="P113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q113">
         <v>0</v>
@@ -14265,10 +14300,10 @@
         <v>34</v>
       </c>
       <c r="B114" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C114" t="s">
-        <v>224</v>
+        <v>193</v>
       </c>
       <c r="D114">
         <v>0</v>
@@ -14310,7 +14345,7 @@
         <v>0</v>
       </c>
       <c r="Q114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R114">
         <v>0</v>
@@ -14375,10 +14410,10 @@
         <v>34</v>
       </c>
       <c r="B115" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C115" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D115">
         <v>0</v>
@@ -14423,7 +14458,7 @@
         <v>0</v>
       </c>
       <c r="R115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S115">
         <v>0</v>
@@ -14485,10 +14520,10 @@
         <v>34</v>
       </c>
       <c r="B116" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C116" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D116">
         <v>0</v>
@@ -14536,7 +14571,7 @@
         <v>0</v>
       </c>
       <c r="S116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T116">
         <v>0</v>
@@ -14592,13 +14627,13 @@
     </row>
     <row r="117" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="B117" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C117" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D117">
         <v>0</v>
@@ -14649,7 +14684,7 @@
         <v>0</v>
       </c>
       <c r="T117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U117">
         <v>0</v>
@@ -14705,10 +14740,10 @@
         <v>0</v>
       </c>
       <c r="B118" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C118" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D118">
         <v>0</v>
@@ -14762,7 +14797,7 @@
         <v>0</v>
       </c>
       <c r="U118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V118">
         <v>0</v>
@@ -14815,10 +14850,10 @@
         <v>0</v>
       </c>
       <c r="B119" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C119" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D119">
         <v>0</v>
@@ -14875,7 +14910,7 @@
         <v>0</v>
       </c>
       <c r="V119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W119">
         <v>0</v>
@@ -14922,13 +14957,13 @@
     </row>
     <row r="120" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="B120" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C120" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D120">
         <v>0</v>
@@ -14988,7 +15023,7 @@
         <v>0</v>
       </c>
       <c r="W120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X120">
         <v>0</v>
@@ -15035,10 +15070,10 @@
         <v>34</v>
       </c>
       <c r="B121" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C121" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D121">
         <v>0</v>
@@ -15101,7 +15136,7 @@
         <v>0</v>
       </c>
       <c r="X121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y121">
         <v>0</v>
@@ -15145,10 +15180,10 @@
         <v>34</v>
       </c>
       <c r="B122" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C122" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D122">
         <v>0</v>
@@ -15214,7 +15249,7 @@
         <v>0</v>
       </c>
       <c r="Y122">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z122">
         <v>0</v>
@@ -15255,10 +15290,10 @@
         <v>34</v>
       </c>
       <c r="B123" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C123" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D123">
         <v>0</v>
@@ -15327,7 +15362,7 @@
         <v>0</v>
       </c>
       <c r="Z123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA123">
         <v>0</v>
@@ -15362,13 +15397,13 @@
     </row>
     <row r="124" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="B124" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C124" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D124">
         <v>0</v>
@@ -15440,7 +15475,7 @@
         <v>0</v>
       </c>
       <c r="AA124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB124">
         <v>0</v>
@@ -15475,10 +15510,10 @@
         <v>0</v>
       </c>
       <c r="B125" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C125" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D125">
         <v>0</v>
@@ -15553,7 +15588,7 @@
         <v>0</v>
       </c>
       <c r="AB125">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC125">
         <v>0</v>
@@ -15582,13 +15617,13 @@
     </row>
     <row r="126" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="B126" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C126" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D126">
         <v>0</v>
@@ -15666,7 +15701,7 @@
         <v>0</v>
       </c>
       <c r="AC126">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD126">
         <v>0</v>
@@ -15695,10 +15730,10 @@
         <v>34</v>
       </c>
       <c r="B127" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C127" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D127">
         <v>0</v>
@@ -15779,7 +15814,7 @@
         <v>0</v>
       </c>
       <c r="AD127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE127">
         <v>0</v>
@@ -15802,13 +15837,13 @@
     </row>
     <row r="128" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="B128" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C128" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D128">
         <v>0</v>
@@ -15892,7 +15927,7 @@
         <v>0</v>
       </c>
       <c r="AE128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF128">
         <v>0</v>
@@ -15915,10 +15950,10 @@
         <v>0</v>
       </c>
       <c r="B129" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C129" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D129">
         <v>0</v>
@@ -16005,7 +16040,7 @@
         <v>0</v>
       </c>
       <c r="AF129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG129">
         <v>0</v>
@@ -16025,10 +16060,10 @@
         <v>0</v>
       </c>
       <c r="B130" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C130" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D130">
         <v>0</v>
@@ -16118,7 +16153,7 @@
         <v>0</v>
       </c>
       <c r="AG130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH130">
         <v>0</v>
@@ -16135,10 +16170,10 @@
         <v>0</v>
       </c>
       <c r="B131" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C131" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D131">
         <v>0</v>
@@ -16231,7 +16266,7 @@
         <v>0</v>
       </c>
       <c r="AH131">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI131">
         <v>0</v>
@@ -16245,10 +16280,10 @@
         <v>0</v>
       </c>
       <c r="B132" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C132" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D132">
         <v>0</v>
@@ -16344,7 +16379,7 @@
         <v>0</v>
       </c>
       <c r="AI132">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ132">
         <v>0</v>
@@ -16355,10 +16390,10 @@
         <v>0</v>
       </c>
       <c r="B133" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C133" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D133">
         <v>0</v>
@@ -16457,7 +16492,7 @@
         <v>0</v>
       </c>
       <c r="AJ133">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:36" x14ac:dyDescent="0.25">
@@ -16465,13 +16500,13 @@
         <v>0</v>
       </c>
       <c r="B134" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C134" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E134">
         <v>0</v>
@@ -16575,16 +16610,16 @@
         <v>0</v>
       </c>
       <c r="B135" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C135" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D135">
         <v>0</v>
       </c>
       <c r="E135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F135">
         <v>0</v>
@@ -16685,10 +16720,10 @@
         <v>0</v>
       </c>
       <c r="B136" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C136" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D136">
         <v>0</v>
@@ -16697,7 +16732,7 @@
         <v>0</v>
       </c>
       <c r="F136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G136">
         <v>0</v>
@@ -16795,10 +16830,10 @@
         <v>0</v>
       </c>
       <c r="B137" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C137" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D137">
         <v>0</v>
@@ -16810,7 +16845,7 @@
         <v>0</v>
       </c>
       <c r="G137">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H137">
         <v>0</v>
@@ -16902,13 +16937,13 @@
     </row>
     <row r="138" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="B138" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C138" t="s">
-        <v>224</v>
+        <v>270</v>
       </c>
       <c r="D138">
         <v>0</v>
@@ -16923,7 +16958,7 @@
         <v>0</v>
       </c>
       <c r="H138">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I138">
         <v>0</v>
@@ -17015,10 +17050,10 @@
         <v>34</v>
       </c>
       <c r="B139" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C139" t="s">
-        <v>273</v>
+        <v>224</v>
       </c>
       <c r="D139">
         <v>0</v>
@@ -17036,7 +17071,7 @@
         <v>0</v>
       </c>
       <c r="I139">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J139">
         <v>0</v>
@@ -17125,10 +17160,10 @@
         <v>34</v>
       </c>
       <c r="B140" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C140" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D140">
         <v>0</v>
@@ -17149,7 +17184,7 @@
         <v>0</v>
       </c>
       <c r="J140">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K140">
         <v>0</v>
@@ -17235,10 +17270,10 @@
         <v>34</v>
       </c>
       <c r="B141" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C141" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D141">
         <v>0</v>
@@ -17262,7 +17297,7 @@
         <v>0</v>
       </c>
       <c r="K141">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L141">
         <v>0</v>
@@ -17342,13 +17377,13 @@
     </row>
     <row r="142" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="B142" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C142" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D142">
         <v>0</v>
@@ -17375,7 +17410,7 @@
         <v>0</v>
       </c>
       <c r="L142">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M142">
         <v>0</v>
@@ -17455,10 +17490,10 @@
         <v>0</v>
       </c>
       <c r="B143" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C143" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D143">
         <v>0</v>
@@ -17488,7 +17523,7 @@
         <v>0</v>
       </c>
       <c r="M143">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N143">
         <v>0</v>
@@ -17562,111 +17597,221 @@
     </row>
     <row r="144" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
+        <v>0</v>
+      </c>
+      <c r="B144" t="s">
+        <v>280</v>
+      </c>
+      <c r="C144" t="s">
+        <v>281</v>
+      </c>
+      <c r="D144">
+        <v>0</v>
+      </c>
+      <c r="E144">
+        <v>0</v>
+      </c>
+      <c r="F144">
+        <v>0</v>
+      </c>
+      <c r="G144">
+        <v>0</v>
+      </c>
+      <c r="H144">
+        <v>0</v>
+      </c>
+      <c r="I144">
+        <v>0</v>
+      </c>
+      <c r="J144">
+        <v>0</v>
+      </c>
+      <c r="K144">
+        <v>0</v>
+      </c>
+      <c r="L144">
+        <v>0</v>
+      </c>
+      <c r="M144">
+        <v>0</v>
+      </c>
+      <c r="N144">
+        <v>0</v>
+      </c>
+      <c r="O144">
+        <v>0</v>
+      </c>
+      <c r="P144">
+        <v>0</v>
+      </c>
+      <c r="Q144">
+        <v>0</v>
+      </c>
+      <c r="R144">
+        <v>0</v>
+      </c>
+      <c r="S144">
+        <v>0</v>
+      </c>
+      <c r="T144">
+        <v>0</v>
+      </c>
+      <c r="U144">
+        <v>0</v>
+      </c>
+      <c r="V144">
+        <v>0</v>
+      </c>
+      <c r="W144">
+        <v>0</v>
+      </c>
+      <c r="X144">
+        <v>0</v>
+      </c>
+      <c r="Y144">
+        <v>0</v>
+      </c>
+      <c r="Z144">
+        <v>0</v>
+      </c>
+      <c r="AA144">
+        <v>0</v>
+      </c>
+      <c r="AB144">
+        <v>0</v>
+      </c>
+      <c r="AC144">
+        <v>0</v>
+      </c>
+      <c r="AD144">
+        <v>0</v>
+      </c>
+      <c r="AE144">
+        <v>0</v>
+      </c>
+      <c r="AF144">
+        <v>0</v>
+      </c>
+      <c r="AG144">
+        <v>0</v>
+      </c>
+      <c r="AH144">
+        <v>0</v>
+      </c>
+      <c r="AI144">
+        <v>0</v>
+      </c>
+      <c r="AJ144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
         <v>34</v>
       </c>
-      <c r="B144" t="s">
+      <c r="B145" t="s">
         <v>282</v>
       </c>
-      <c r="C144" t="s">
+      <c r="C145" t="s">
         <v>283</v>
       </c>
-      <c r="D144">
-        <v>0</v>
-      </c>
-      <c r="E144">
-        <v>0</v>
-      </c>
-      <c r="F144">
-        <v>0</v>
-      </c>
-      <c r="G144">
-        <v>0</v>
-      </c>
-      <c r="H144">
-        <v>0</v>
-      </c>
-      <c r="I144">
-        <v>0</v>
-      </c>
-      <c r="J144">
-        <v>0</v>
-      </c>
-      <c r="K144">
-        <v>0</v>
-      </c>
-      <c r="L144">
-        <v>0</v>
-      </c>
-      <c r="M144">
-        <v>0</v>
-      </c>
-      <c r="N144">
-        <v>1</v>
-      </c>
-      <c r="O144">
-        <v>0</v>
-      </c>
-      <c r="P144">
-        <v>0</v>
-      </c>
-      <c r="Q144">
-        <v>0</v>
-      </c>
-      <c r="R144">
-        <v>0</v>
-      </c>
-      <c r="S144">
-        <v>0</v>
-      </c>
-      <c r="T144">
-        <v>0</v>
-      </c>
-      <c r="U144">
-        <v>0</v>
-      </c>
-      <c r="V144">
-        <v>0</v>
-      </c>
-      <c r="W144">
-        <v>0</v>
-      </c>
-      <c r="X144">
-        <v>0</v>
-      </c>
-      <c r="Y144">
-        <v>0</v>
-      </c>
-      <c r="Z144">
-        <v>0</v>
-      </c>
-      <c r="AA144">
-        <v>0</v>
-      </c>
-      <c r="AB144">
-        <v>0</v>
-      </c>
-      <c r="AC144">
-        <v>0</v>
-      </c>
-      <c r="AD144">
-        <v>0</v>
-      </c>
-      <c r="AE144">
-        <v>0</v>
-      </c>
-      <c r="AF144">
-        <v>0</v>
-      </c>
-      <c r="AG144">
-        <v>0</v>
-      </c>
-      <c r="AH144">
-        <v>0</v>
-      </c>
-      <c r="AI144">
-        <v>0</v>
-      </c>
-      <c r="AJ144">
+      <c r="D145">
+        <v>0</v>
+      </c>
+      <c r="E145">
+        <v>0</v>
+      </c>
+      <c r="F145">
+        <v>0</v>
+      </c>
+      <c r="G145">
+        <v>0</v>
+      </c>
+      <c r="H145">
+        <v>0</v>
+      </c>
+      <c r="I145">
+        <v>0</v>
+      </c>
+      <c r="J145">
+        <v>0</v>
+      </c>
+      <c r="K145">
+        <v>0</v>
+      </c>
+      <c r="L145">
+        <v>0</v>
+      </c>
+      <c r="M145">
+        <v>0</v>
+      </c>
+      <c r="N145">
+        <v>0</v>
+      </c>
+      <c r="O145">
+        <v>0</v>
+      </c>
+      <c r="P145">
+        <v>0</v>
+      </c>
+      <c r="Q145">
+        <v>0</v>
+      </c>
+      <c r="R145">
+        <v>0</v>
+      </c>
+      <c r="S145">
+        <v>0</v>
+      </c>
+      <c r="T145">
+        <v>0</v>
+      </c>
+      <c r="U145">
+        <v>0</v>
+      </c>
+      <c r="V145">
+        <v>0</v>
+      </c>
+      <c r="W145">
+        <v>0</v>
+      </c>
+      <c r="X145">
+        <v>0</v>
+      </c>
+      <c r="Y145">
+        <v>0</v>
+      </c>
+      <c r="Z145">
+        <v>0</v>
+      </c>
+      <c r="AA145">
+        <v>0</v>
+      </c>
+      <c r="AB145">
+        <v>0</v>
+      </c>
+      <c r="AC145">
+        <v>0</v>
+      </c>
+      <c r="AD145">
+        <v>0</v>
+      </c>
+      <c r="AE145">
+        <v>0</v>
+      </c>
+      <c r="AF145">
+        <v>0</v>
+      </c>
+      <c r="AG145">
+        <v>0</v>
+      </c>
+      <c r="AH145">
+        <v>0</v>
+      </c>
+      <c r="AI145">
+        <v>0</v>
+      </c>
+      <c r="AJ145">
         <v>0</v>
       </c>
     </row>

--- a/Evaluation_V2/Bareme.xlsx
+++ b/Evaluation_V2/Bareme.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Enseignement\GitHub\PSI\Evaluation_V2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{93C96112-7253-4607-AE4F-B3FE56A3AFE7}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{AAECEBAA-9E4C-40AF-A628-79085782F6EF}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6945" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1822,8 +1822,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AJ145"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AB18" sqref="AB18"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="AB5" sqref="AB5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1954,27 +1954,27 @@
       </c>
       <c r="D2">
         <f>SUM(D3:D145)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E2">
         <f t="shared" ref="E2:AJ2" si="0">SUM(E3:E145)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F2">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G2">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H2">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I2">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="J2">
         <f t="shared" si="0"/>
@@ -1986,27 +1986,27 @@
       </c>
       <c r="L2">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M2">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N2">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="O2">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P2">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="Q2">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="R2">
         <f t="shared" si="0"/>
@@ -2018,55 +2018,55 @@
       </c>
       <c r="T2">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="U2">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="V2">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="W2">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X2">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="Y2">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="Z2">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AA2">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="AB2">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AC2">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AD2">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AE2">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF2">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AG2">
         <f t="shared" si="0"/>
@@ -2123,7 +2123,7 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -2162,7 +2162,7 @@
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA3">
         <v>0</v>
@@ -2236,7 +2236,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -2275,7 +2275,7 @@
         <v>0</v>
       </c>
       <c r="AA4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AB4">
         <v>0</v>
@@ -2349,7 +2349,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P5">
         <v>0</v>
@@ -2388,7 +2388,7 @@
         <v>0</v>
       </c>
       <c r="AB5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC5">
         <v>0</v>
@@ -2462,7 +2462,7 @@
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q6">
         <v>0</v>
@@ -2501,7 +2501,7 @@
         <v>0</v>
       </c>
       <c r="AC6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD6">
         <v>0</v>
@@ -2575,7 +2575,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R7">
         <v>0</v>
@@ -2590,7 +2590,7 @@
         <v>0</v>
       </c>
       <c r="V7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W7">
         <v>0</v>
@@ -2614,7 +2614,7 @@
         <v>0</v>
       </c>
       <c r="AD7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AE7">
         <v>0</v>
@@ -2703,7 +2703,7 @@
         <v>0</v>
       </c>
       <c r="W8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X8">
         <v>0</v>
@@ -2816,7 +2816,7 @@
         <v>0</v>
       </c>
       <c r="X9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y9">
         <v>0</v>
@@ -2914,7 +2914,7 @@
         <v>0</v>
       </c>
       <c r="T10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U10">
         <v>0</v>
@@ -2929,7 +2929,7 @@
         <v>0</v>
       </c>
       <c r="Y10">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Z10">
         <v>0</v>
@@ -2953,7 +2953,7 @@
         <v>0</v>
       </c>
       <c r="AG10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH10">
         <v>0</v>
@@ -3027,7 +3027,7 @@
         <v>0</v>
       </c>
       <c r="U11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V11">
         <v>0</v>
@@ -3113,7 +3113,7 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -3265,7 +3265,7 @@
         <v>0</v>
       </c>
       <c r="AA13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AB13">
         <v>0</v>
@@ -3416,7 +3416,7 @@
         <v>26</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -3443,7 +3443,7 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -3452,7 +3452,7 @@
         <v>0</v>
       </c>
       <c r="P15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15">
         <v>0</v>
@@ -3482,7 +3482,7 @@
         <v>0</v>
       </c>
       <c r="Z15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA15">
         <v>0</v>
@@ -3529,7 +3529,7 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -3556,7 +3556,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -3565,7 +3565,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R16">
         <v>0</v>
@@ -3595,7 +3595,7 @@
         <v>0</v>
       </c>
       <c r="AA16">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AB16">
         <v>0</v>
@@ -3642,7 +3642,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -3669,7 +3669,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -3678,7 +3678,7 @@
         <v>0</v>
       </c>
       <c r="R17">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S17">
         <v>0</v>
@@ -3755,7 +3755,7 @@
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -3782,7 +3782,7 @@
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q18">
         <v>0</v>
@@ -3791,7 +3791,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T18">
         <v>0</v>
@@ -3868,7 +3868,7 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -3895,7 +3895,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R19">
         <v>0</v>
@@ -3904,13 +3904,13 @@
         <v>0</v>
       </c>
       <c r="T19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U19">
         <v>0</v>
       </c>
       <c r="V19">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W19">
         <v>0</v>
@@ -3981,7 +3981,7 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -4017,13 +4017,13 @@
         <v>0</v>
       </c>
       <c r="U20">
+        <v>0</v>
+      </c>
+      <c r="V20">
+        <v>0</v>
+      </c>
+      <c r="W20">
         <v>1</v>
-      </c>
-      <c r="V20">
-        <v>0</v>
-      </c>
-      <c r="W20">
-        <v>0</v>
       </c>
       <c r="X20">
         <v>0</v>
@@ -4130,13 +4130,13 @@
         <v>0</v>
       </c>
       <c r="V21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W21">
         <v>0</v>
       </c>
       <c r="X21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y21">
         <v>0</v>
@@ -4234,7 +4234,7 @@
         <v>0</v>
       </c>
       <c r="T22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U22">
         <v>0</v>
@@ -4243,13 +4243,13 @@
         <v>0</v>
       </c>
       <c r="W22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X22">
         <v>0</v>
       </c>
       <c r="Y22">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Z22">
         <v>0</v>
@@ -4320,7 +4320,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -4347,7 +4347,7 @@
         <v>0</v>
       </c>
       <c r="U23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V23">
         <v>0</v>
@@ -4356,7 +4356,7 @@
         <v>0</v>
       </c>
       <c r="X23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y23">
         <v>0</v>
@@ -4469,7 +4469,7 @@
         <v>0</v>
       </c>
       <c r="Y24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z24">
         <v>0</v>
@@ -4546,7 +4546,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O25">
         <v>0</v>
@@ -4582,13 +4582,13 @@
         <v>0</v>
       </c>
       <c r="Z25">
+        <v>0</v>
+      </c>
+      <c r="AA25">
+        <v>0</v>
+      </c>
+      <c r="AB25">
         <v>1</v>
-      </c>
-      <c r="AA25">
-        <v>0</v>
-      </c>
-      <c r="AB25">
-        <v>0</v>
       </c>
       <c r="AC25">
         <v>0</v>
@@ -4695,13 +4695,13 @@
         <v>0</v>
       </c>
       <c r="AA26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB26">
         <v>0</v>
       </c>
       <c r="AC26">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD26">
         <v>0</v>
@@ -4772,7 +4772,7 @@
         <v>0</v>
       </c>
       <c r="P27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q27">
         <v>0</v>
@@ -4808,7 +4808,7 @@
         <v>0</v>
       </c>
       <c r="AB27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC27">
         <v>0</v>
@@ -4885,7 +4885,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R28">
         <v>0</v>
@@ -4900,7 +4900,7 @@
         <v>0</v>
       </c>
       <c r="V28">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W28">
         <v>0</v>
@@ -4921,7 +4921,7 @@
         <v>0</v>
       </c>
       <c r="AC28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD28">
         <v>0</v>
@@ -4998,7 +4998,7 @@
         <v>0</v>
       </c>
       <c r="R29">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S29">
         <v>0</v>
@@ -5034,7 +5034,7 @@
         <v>0</v>
       </c>
       <c r="AD29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE29">
         <v>0</v>
@@ -5111,7 +5111,7 @@
         <v>0</v>
       </c>
       <c r="S30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T30">
         <v>0</v>
@@ -5147,7 +5147,7 @@
         <v>0</v>
       </c>
       <c r="AE30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF30">
         <v>0</v>
@@ -5224,7 +5224,7 @@
         <v>0</v>
       </c>
       <c r="T31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U31">
         <v>0</v>
@@ -5260,7 +5260,7 @@
         <v>0</v>
       </c>
       <c r="AF31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG31">
         <v>0</v>
@@ -5337,7 +5337,7 @@
         <v>0</v>
       </c>
       <c r="U32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V32">
         <v>0</v>
@@ -5373,7 +5373,7 @@
         <v>0</v>
       </c>
       <c r="AG32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH32">
         <v>0</v>

--- a/Evaluation_V2/Bareme.xlsx
+++ b/Evaluation_V2/Bareme.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Enseignement\GitHub\PSI\Evaluation_V2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{AAECEBAA-9E4C-40AF-A628-79085782F6EF}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{05DCAD84-BF3B-4585-97C3-D667A042FC2E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6945" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="320">
   <si>
     <t>PCSI</t>
   </si>
@@ -1820,10 +1820,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AJ145"/>
+  <dimension ref="A1:AJ146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="AB5" sqref="AB5"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="AJ3" sqref="AJ3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1953,11 +1953,11 @@
         <v>286</v>
       </c>
       <c r="D2">
-        <f>SUM(D3:D145)</f>
+        <f>SUM(D4:D146)</f>
         <v>4</v>
       </c>
       <c r="E2">
-        <f t="shared" ref="E2:AJ2" si="0">SUM(E3:E145)</f>
+        <f t="shared" ref="E2:AJ2" si="0">SUM(E4:E146)</f>
         <v>5</v>
       </c>
       <c r="F2">
@@ -2087,112 +2087,109 @@
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>0</v>
+        <v>284</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>285</v>
       </c>
       <c r="C3" t="s">
-        <v>2</v>
+        <v>286</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Y3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Z3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AA3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AB3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AC3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AD3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AE3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AF3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AG3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AH3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AI3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AJ3">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:36" x14ac:dyDescent="0.25">
@@ -2200,43 +2197,43 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
         <v>2</v>
       </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
       <c r="N4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -2272,10 +2269,10 @@
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AB4">
         <v>0</v>
@@ -2310,46 +2307,46 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
         <v>3</v>
       </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
       <c r="O5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P5">
         <v>0</v>
@@ -2385,10 +2382,10 @@
         <v>0</v>
       </c>
       <c r="AA5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AB5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC5">
         <v>0</v>
@@ -2420,10 +2417,10 @@
         <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -2432,37 +2429,37 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
         <v>1</v>
       </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
       <c r="P6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q6">
         <v>0</v>
@@ -2498,10 +2495,10 @@
         <v>0</v>
       </c>
       <c r="AB6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AD6">
         <v>0</v>
@@ -2530,10 +2527,10 @@
         <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -2545,37 +2542,37 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
         <v>2</v>
       </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
       <c r="Q7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R7">
         <v>0</v>
@@ -2590,7 +2587,7 @@
         <v>0</v>
       </c>
       <c r="V7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="W7">
         <v>0</v>
@@ -2611,10 +2608,10 @@
         <v>0</v>
       </c>
       <c r="AC7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AE7">
         <v>0</v>
@@ -2640,10 +2637,10 @@
         <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -2658,35 +2655,35 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
         <v>4</v>
       </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>0</v>
-      </c>
       <c r="R8">
         <v>0</v>
       </c>
@@ -2700,10 +2697,10 @@
         <v>0</v>
       </c>
       <c r="V8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X8">
         <v>0</v>
@@ -2724,7 +2721,7 @@
         <v>0</v>
       </c>
       <c r="AD8">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AE8">
         <v>0</v>
@@ -2750,10 +2747,10 @@
         <v>0</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -2771,7 +2768,7 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -2813,10 +2810,10 @@
         <v>0</v>
       </c>
       <c r="W9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y9">
         <v>0</v>
@@ -2860,10 +2857,10 @@
         <v>0</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -2914,7 +2911,7 @@
         <v>0</v>
       </c>
       <c r="T10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U10">
         <v>0</v>
@@ -2926,10 +2923,10 @@
         <v>0</v>
       </c>
       <c r="X10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y10">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Z10">
         <v>0</v>
@@ -2953,7 +2950,7 @@
         <v>0</v>
       </c>
       <c r="AG10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH10">
         <v>0</v>
@@ -2970,10 +2967,10 @@
         <v>0</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -3000,34 +2997,34 @@
         <v>0</v>
       </c>
       <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
         <v>1</v>
       </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-      <c r="N11">
-        <v>0</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>0</v>
-      </c>
-      <c r="R11">
-        <v>0</v>
-      </c>
-      <c r="S11">
-        <v>0</v>
-      </c>
-      <c r="T11">
-        <v>0</v>
-      </c>
       <c r="U11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V11">
         <v>0</v>
@@ -3039,7 +3036,7 @@
         <v>0</v>
       </c>
       <c r="Y11">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Z11">
         <v>0</v>
@@ -3063,7 +3060,7 @@
         <v>0</v>
       </c>
       <c r="AG11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH11">
         <v>0</v>
@@ -3080,10 +3077,10 @@
         <v>0</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -3110,7 +3107,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -3137,7 +3134,7 @@
         <v>0</v>
       </c>
       <c r="U12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V12">
         <v>0</v>
@@ -3190,10 +3187,10 @@
         <v>0</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -3226,7 +3223,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -3265,7 +3262,7 @@
         <v>0</v>
       </c>
       <c r="AA13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AB13">
         <v>0</v>
@@ -3300,10 +3297,10 @@
         <v>0</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -3336,7 +3333,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -3375,7 +3372,7 @@
         <v>0</v>
       </c>
       <c r="AA14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AB14">
         <v>0</v>
@@ -3410,13 +3407,13 @@
         <v>0</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -3443,7 +3440,7 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -3482,7 +3479,7 @@
         <v>0</v>
       </c>
       <c r="Z15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AA15">
         <v>0</v>
@@ -3520,43 +3517,43 @@
         <v>0</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
         <v>2</v>
       </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
-      <c r="M16">
-        <v>0</v>
-      </c>
       <c r="N16">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -3592,10 +3589,10 @@
         <v>0</v>
       </c>
       <c r="Z16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA16">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AB16">
         <v>0</v>
@@ -3630,46 +3627,46 @@
         <v>0</v>
       </c>
       <c r="B17" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C17" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
         <v>3</v>
       </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-      <c r="M17">
-        <v>0</v>
-      </c>
-      <c r="N17">
-        <v>0</v>
-      </c>
       <c r="O17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -3705,7 +3702,7 @@
         <v>0</v>
       </c>
       <c r="AA17">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AB17">
         <v>0</v>
@@ -3740,10 +3737,10 @@
         <v>0</v>
       </c>
       <c r="B18" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C18" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -3752,37 +3749,37 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
         <v>1</v>
       </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-      <c r="L18">
-        <v>0</v>
-      </c>
-      <c r="M18">
-        <v>0</v>
-      </c>
-      <c r="N18">
-        <v>0</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
       <c r="P18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q18">
         <v>0</v>
@@ -3847,13 +3844,13 @@
     </row>
     <row r="19" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="B19" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C19" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -3865,37 +3862,37 @@
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
         <v>2</v>
       </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="L19">
-        <v>0</v>
-      </c>
-      <c r="M19">
-        <v>0</v>
-      </c>
-      <c r="N19">
-        <v>0</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19">
-        <v>0</v>
-      </c>
       <c r="Q19">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R19">
         <v>0</v>
@@ -3910,7 +3907,7 @@
         <v>0</v>
       </c>
       <c r="V19">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="W19">
         <v>0</v>
@@ -3960,10 +3957,10 @@
         <v>34</v>
       </c>
       <c r="B20" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C20" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -3978,35 +3975,35 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
         <v>4</v>
       </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-      <c r="L20">
-        <v>0</v>
-      </c>
-      <c r="M20">
-        <v>0</v>
-      </c>
-      <c r="N20">
-        <v>0</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>0</v>
-      </c>
       <c r="R20">
         <v>0</v>
       </c>
@@ -4020,10 +4017,10 @@
         <v>0</v>
       </c>
       <c r="V20">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X20">
         <v>0</v>
@@ -4070,10 +4067,10 @@
         <v>34</v>
       </c>
       <c r="B21" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C21" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -4091,7 +4088,7 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -4133,10 +4130,10 @@
         <v>0</v>
       </c>
       <c r="W21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y21">
         <v>0</v>
@@ -4180,10 +4177,10 @@
         <v>34</v>
       </c>
       <c r="B22" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C22" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -4234,7 +4231,7 @@
         <v>0</v>
       </c>
       <c r="T22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U22">
         <v>0</v>
@@ -4246,10 +4243,10 @@
         <v>0</v>
       </c>
       <c r="X22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y22">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Z22">
         <v>0</v>
@@ -4290,10 +4287,10 @@
         <v>34</v>
       </c>
       <c r="B23" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C23" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -4320,34 +4317,34 @@
         <v>0</v>
       </c>
       <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23">
         <v>1</v>
       </c>
-      <c r="M23">
-        <v>0</v>
-      </c>
-      <c r="N23">
-        <v>0</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>0</v>
-      </c>
-      <c r="R23">
-        <v>0</v>
-      </c>
-      <c r="S23">
-        <v>0</v>
-      </c>
-      <c r="T23">
-        <v>0</v>
-      </c>
       <c r="U23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V23">
         <v>0</v>
@@ -4359,7 +4356,7 @@
         <v>0</v>
       </c>
       <c r="Y23">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Z23">
         <v>0</v>
@@ -4400,10 +4397,10 @@
         <v>34</v>
       </c>
       <c r="B24" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C24" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -4430,7 +4427,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -4457,7 +4454,7 @@
         <v>0</v>
       </c>
       <c r="U24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V24">
         <v>0</v>
@@ -4510,10 +4507,10 @@
         <v>34</v>
       </c>
       <c r="B25" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C25" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -4546,7 +4543,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O25">
         <v>0</v>
@@ -4588,7 +4585,7 @@
         <v>0</v>
       </c>
       <c r="AB25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC25">
         <v>0</v>
@@ -4620,10 +4617,10 @@
         <v>34</v>
       </c>
       <c r="B26" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C26" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -4656,7 +4653,7 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O26">
         <v>0</v>
@@ -4698,10 +4695,10 @@
         <v>0</v>
       </c>
       <c r="AB26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC26">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AD26">
         <v>0</v>
@@ -4727,13 +4724,13 @@
     </row>
     <row r="27" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="B27" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C27" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -4772,7 +4769,7 @@
         <v>0</v>
       </c>
       <c r="P27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q27">
         <v>0</v>
@@ -4811,7 +4808,7 @@
         <v>0</v>
       </c>
       <c r="AC27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD27">
         <v>0</v>
@@ -4837,13 +4834,13 @@
     </row>
     <row r="28" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="B28" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C28" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -4882,10 +4879,10 @@
         <v>0</v>
       </c>
       <c r="P28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q28">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R28">
         <v>0</v>
@@ -4900,7 +4897,7 @@
         <v>0</v>
       </c>
       <c r="V28">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="W28">
         <v>0</v>
@@ -4947,13 +4944,13 @@
     </row>
     <row r="29" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="B29" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C29" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -4995,22 +4992,22 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R29">
+        <v>0</v>
+      </c>
+      <c r="S29">
+        <v>0</v>
+      </c>
+      <c r="T29">
+        <v>0</v>
+      </c>
+      <c r="U29">
+        <v>0</v>
+      </c>
+      <c r="V29">
         <v>3</v>
-      </c>
-      <c r="S29">
-        <v>0</v>
-      </c>
-      <c r="T29">
-        <v>0</v>
-      </c>
-      <c r="U29">
-        <v>0</v>
-      </c>
-      <c r="V29">
-        <v>0</v>
       </c>
       <c r="W29">
         <v>0</v>
@@ -5057,13 +5054,13 @@
     </row>
     <row r="30" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="B30" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C30" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -5108,10 +5105,10 @@
         <v>0</v>
       </c>
       <c r="R30">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T30">
         <v>0</v>
@@ -5167,13 +5164,13 @@
     </row>
     <row r="31" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="B31" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C31" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -5221,10 +5218,10 @@
         <v>0</v>
       </c>
       <c r="S31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U31">
         <v>0</v>
@@ -5280,10 +5277,10 @@
         <v>0</v>
       </c>
       <c r="B32" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C32" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -5334,10 +5331,10 @@
         <v>0</v>
       </c>
       <c r="T32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V32">
         <v>0</v>
@@ -5387,13 +5384,13 @@
     </row>
     <row r="33" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="B33" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C33" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -5447,7 +5444,7 @@
         <v>0</v>
       </c>
       <c r="U33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V33">
         <v>0</v>
@@ -5486,7 +5483,7 @@
         <v>0</v>
       </c>
       <c r="AH33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI33">
         <v>0</v>
@@ -5497,13 +5494,13 @@
     </row>
     <row r="34" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C34" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -5596,10 +5593,10 @@
         <v>0</v>
       </c>
       <c r="AH34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ34">
         <v>0</v>
@@ -5607,13 +5604,13 @@
     </row>
     <row r="35" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="B35" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C35" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -5709,10 +5706,10 @@
         <v>0</v>
       </c>
       <c r="AI35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ35">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:36" x14ac:dyDescent="0.25">
@@ -5720,13 +5717,13 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C36" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D36">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -5822,24 +5819,24 @@
         <v>0</v>
       </c>
       <c r="AJ36">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="B37" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C37" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D37">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F37">
         <v>0</v>
@@ -5940,19 +5937,19 @@
         <v>0</v>
       </c>
       <c r="B38" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C38" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D38">
         <v>0</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F38">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -6050,10 +6047,10 @@
         <v>0</v>
       </c>
       <c r="B39" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C39" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D39">
         <v>0</v>
@@ -6062,10 +6059,10 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H39">
         <v>0</v>
@@ -6157,13 +6154,13 @@
     </row>
     <row r="40" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="B40" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C40" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D40">
         <v>0</v>
@@ -6175,10 +6172,10 @@
         <v>0</v>
       </c>
       <c r="G40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40">
         <v>0</v>
@@ -6267,13 +6264,13 @@
     </row>
     <row r="41" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="B41" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C41" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -6288,10 +6285,10 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J41">
         <v>0</v>
@@ -6380,10 +6377,10 @@
         <v>0</v>
       </c>
       <c r="B42" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C42" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -6401,10 +6398,10 @@
         <v>0</v>
       </c>
       <c r="I42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K42">
         <v>0</v>
@@ -6490,10 +6487,10 @@
         <v>0</v>
       </c>
       <c r="B43" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C43" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D43">
         <v>0</v>
@@ -6514,10 +6511,10 @@
         <v>0</v>
       </c>
       <c r="J43">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L43">
         <v>0</v>
@@ -6597,13 +6594,13 @@
     </row>
     <row r="44" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="B44" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C44" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -6627,10 +6624,10 @@
         <v>0</v>
       </c>
       <c r="K44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L44">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M44">
         <v>0</v>
@@ -6710,10 +6707,10 @@
         <v>34</v>
       </c>
       <c r="B45" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C45" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -6740,10 +6737,10 @@
         <v>0</v>
       </c>
       <c r="L45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N45">
         <v>0</v>
@@ -6820,10 +6817,10 @@
         <v>34</v>
       </c>
       <c r="B46" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C46" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -6853,10 +6850,10 @@
         <v>0</v>
       </c>
       <c r="M46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N46">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O46">
         <v>0</v>
@@ -6930,10 +6927,10 @@
         <v>34</v>
       </c>
       <c r="B47" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C47" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -6966,10 +6963,10 @@
         <v>0</v>
       </c>
       <c r="N47">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P47">
         <v>0</v>
@@ -7040,10 +7037,10 @@
         <v>34</v>
       </c>
       <c r="B48" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C48" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D48">
         <v>0</v>
@@ -7079,10 +7076,10 @@
         <v>0</v>
       </c>
       <c r="O48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P48">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q48">
         <v>0</v>
@@ -7150,10 +7147,10 @@
         <v>34</v>
       </c>
       <c r="B49" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C49" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D49">
         <v>0</v>
@@ -7192,10 +7189,10 @@
         <v>0</v>
       </c>
       <c r="P49">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R49">
         <v>0</v>
@@ -7260,10 +7257,10 @@
         <v>34</v>
       </c>
       <c r="B50" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C50" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D50">
         <v>0</v>
@@ -7305,10 +7302,10 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R50">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S50">
         <v>0</v>
@@ -7370,10 +7367,10 @@
         <v>34</v>
       </c>
       <c r="B51" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C51" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D51">
         <v>0</v>
@@ -7418,10 +7415,10 @@
         <v>0</v>
       </c>
       <c r="R51">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T51">
         <v>0</v>
@@ -7480,10 +7477,10 @@
         <v>34</v>
       </c>
       <c r="B52" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C52" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D52">
         <v>0</v>
@@ -7531,10 +7528,10 @@
         <v>0</v>
       </c>
       <c r="S52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T52">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U52">
         <v>0</v>
@@ -7590,10 +7587,10 @@
         <v>34</v>
       </c>
       <c r="B53" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C53" t="s">
-        <v>37</v>
+        <v>103</v>
       </c>
       <c r="D53">
         <v>0</v>
@@ -7644,10 +7641,10 @@
         <v>0</v>
       </c>
       <c r="T53">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V53">
         <v>0</v>
@@ -7700,10 +7697,10 @@
         <v>34</v>
       </c>
       <c r="B54" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C54" t="s">
-        <v>106</v>
+        <v>37</v>
       </c>
       <c r="D54">
         <v>0</v>
@@ -7757,10 +7754,10 @@
         <v>0</v>
       </c>
       <c r="U54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V54">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W54">
         <v>0</v>
@@ -7810,10 +7807,10 @@
         <v>34</v>
       </c>
       <c r="B55" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C55" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D55">
         <v>0</v>
@@ -7870,10 +7867,10 @@
         <v>0</v>
       </c>
       <c r="V55">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X55">
         <v>0</v>
@@ -7920,10 +7917,10 @@
         <v>34</v>
       </c>
       <c r="B56" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C56" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D56">
         <v>0</v>
@@ -7983,10 +7980,10 @@
         <v>0</v>
       </c>
       <c r="W56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X56">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y56">
         <v>0</v>
@@ -8027,13 +8024,13 @@
     </row>
     <row r="57" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="B57" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C57" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D57">
         <v>0</v>
@@ -8096,10 +8093,10 @@
         <v>0</v>
       </c>
       <c r="X57">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z57">
         <v>0</v>
@@ -8140,10 +8137,10 @@
         <v>0</v>
       </c>
       <c r="B58" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C58" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D58">
         <v>0</v>
@@ -8209,10 +8206,10 @@
         <v>0</v>
       </c>
       <c r="Y58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z58">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AA58">
         <v>0</v>
@@ -8250,10 +8247,10 @@
         <v>0</v>
       </c>
       <c r="B59" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C59" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D59">
         <v>0</v>
@@ -8322,10 +8319,10 @@
         <v>0</v>
       </c>
       <c r="Z59">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB59">
         <v>0</v>
@@ -8360,10 +8357,10 @@
         <v>0</v>
       </c>
       <c r="B60" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C60" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D60">
         <v>0</v>
@@ -8435,10 +8432,10 @@
         <v>0</v>
       </c>
       <c r="AA60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB60">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AC60">
         <v>0</v>
@@ -8470,10 +8467,10 @@
         <v>0</v>
       </c>
       <c r="B61" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C61" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D61">
         <v>0</v>
@@ -8548,10 +8545,10 @@
         <v>0</v>
       </c>
       <c r="AB61">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD61">
         <v>0</v>
@@ -8580,10 +8577,10 @@
         <v>0</v>
       </c>
       <c r="B62" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C62" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D62">
         <v>0</v>
@@ -8661,10 +8658,10 @@
         <v>0</v>
       </c>
       <c r="AC62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD62">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE62">
         <v>0</v>
@@ -8687,13 +8684,13 @@
     </row>
     <row r="63" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="B63" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C63" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D63">
         <v>0</v>
@@ -8774,10 +8771,10 @@
         <v>0</v>
       </c>
       <c r="AD63">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF63">
         <v>0</v>
@@ -8800,10 +8797,10 @@
         <v>34</v>
       </c>
       <c r="B64" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C64" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D64">
         <v>0</v>
@@ -8887,10 +8884,10 @@
         <v>0</v>
       </c>
       <c r="AE64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF64">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG64">
         <v>0</v>
@@ -8910,10 +8907,10 @@
         <v>34</v>
       </c>
       <c r="B65" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C65" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D65">
         <v>0</v>
@@ -9000,10 +8997,10 @@
         <v>0</v>
       </c>
       <c r="AF65">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH65">
         <v>0</v>
@@ -9020,10 +9017,10 @@
         <v>34</v>
       </c>
       <c r="B66" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C66" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D66">
         <v>0</v>
@@ -9113,10 +9110,10 @@
         <v>0</v>
       </c>
       <c r="AG66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH66">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AI66">
         <v>0</v>
@@ -9127,13 +9124,13 @@
     </row>
     <row r="67" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="B67" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C67" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D67">
         <v>0</v>
@@ -9226,10 +9223,10 @@
         <v>0</v>
       </c>
       <c r="AH67">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ67">
         <v>0</v>
@@ -9240,10 +9237,10 @@
         <v>0</v>
       </c>
       <c r="B68" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C68" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D68">
         <v>0</v>
@@ -9339,10 +9336,10 @@
         <v>0</v>
       </c>
       <c r="AI68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ68">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:36" x14ac:dyDescent="0.25">
@@ -9350,10 +9347,10 @@
         <v>0</v>
       </c>
       <c r="B69" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C69" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D69">
         <v>0</v>
@@ -9452,7 +9449,7 @@
         <v>0</v>
       </c>
       <c r="AJ69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:36" x14ac:dyDescent="0.25">
@@ -9460,10 +9457,10 @@
         <v>0</v>
       </c>
       <c r="B70" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C70" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D70">
         <v>0</v>
@@ -9570,10 +9567,10 @@
         <v>0</v>
       </c>
       <c r="B71" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C71" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D71">
         <v>0</v>
@@ -9677,13 +9674,13 @@
     </row>
     <row r="72" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="B72" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C72" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D72">
         <v>0</v>
@@ -9787,13 +9784,13 @@
     </row>
     <row r="73" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="B73" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C73" t="s">
-        <v>112</v>
+        <v>142</v>
       </c>
       <c r="D73">
         <v>0</v>
@@ -9900,10 +9897,10 @@
         <v>0</v>
       </c>
       <c r="B74" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C74" t="s">
-        <v>145</v>
+        <v>112</v>
       </c>
       <c r="D74">
         <v>0</v>
@@ -10010,10 +10007,10 @@
         <v>0</v>
       </c>
       <c r="B75" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C75" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D75">
         <v>0</v>
@@ -10120,10 +10117,10 @@
         <v>0</v>
       </c>
       <c r="B76" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C76" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D76">
         <v>0</v>
@@ -10227,13 +10224,13 @@
     </row>
     <row r="77" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="B77" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C77" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D77">
         <v>0</v>
@@ -10340,10 +10337,10 @@
         <v>34</v>
       </c>
       <c r="B78" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C78" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D78">
         <v>0</v>
@@ -10450,10 +10447,10 @@
         <v>34</v>
       </c>
       <c r="B79" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C79" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D79">
         <v>0</v>
@@ -10560,10 +10557,10 @@
         <v>34</v>
       </c>
       <c r="B80" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C80" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D80">
         <v>0</v>
@@ -10670,10 +10667,10 @@
         <v>34</v>
       </c>
       <c r="B81" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C81" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D81">
         <v>0</v>
@@ -10780,10 +10777,10 @@
         <v>34</v>
       </c>
       <c r="B82" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C82" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D82">
         <v>0</v>
@@ -10887,13 +10884,13 @@
     </row>
     <row r="83" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="B83" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C83" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D83">
         <v>0</v>
@@ -11000,10 +10997,10 @@
         <v>0</v>
       </c>
       <c r="B84" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C84" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D84">
         <v>0</v>
@@ -11110,10 +11107,10 @@
         <v>0</v>
       </c>
       <c r="B85" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C85" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D85">
         <v>0</v>
@@ -11220,10 +11217,10 @@
         <v>0</v>
       </c>
       <c r="B86" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C86" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D86">
         <v>0</v>
@@ -11330,10 +11327,10 @@
         <v>0</v>
       </c>
       <c r="B87" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C87" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D87">
         <v>0</v>
@@ -11440,10 +11437,10 @@
         <v>0</v>
       </c>
       <c r="B88" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C88" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D88">
         <v>0</v>
@@ -11550,10 +11547,10 @@
         <v>0</v>
       </c>
       <c r="B89" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C89" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D89">
         <v>0</v>
@@ -11660,10 +11657,10 @@
         <v>0</v>
       </c>
       <c r="B90" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C90" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D90">
         <v>0</v>
@@ -11770,10 +11767,10 @@
         <v>0</v>
       </c>
       <c r="B91" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C91" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D91">
         <v>0</v>
@@ -11880,10 +11877,10 @@
         <v>0</v>
       </c>
       <c r="B92" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C92" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D92">
         <v>0</v>
@@ -11990,10 +11987,10 @@
         <v>0</v>
       </c>
       <c r="B93" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C93" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D93">
         <v>0</v>
@@ -12100,10 +12097,10 @@
         <v>0</v>
       </c>
       <c r="B94" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C94" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D94">
         <v>0</v>
@@ -12210,10 +12207,10 @@
         <v>0</v>
       </c>
       <c r="B95" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C95" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D95">
         <v>0</v>
@@ -12320,10 +12317,10 @@
         <v>0</v>
       </c>
       <c r="B96" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C96" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D96">
         <v>0</v>
@@ -12430,10 +12427,10 @@
         <v>0</v>
       </c>
       <c r="B97" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C97" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D97">
         <v>0</v>
@@ -12537,13 +12534,13 @@
     </row>
     <row r="98" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="B98" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C98" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D98">
         <v>0</v>
@@ -12650,10 +12647,10 @@
         <v>34</v>
       </c>
       <c r="B99" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C99" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D99">
         <v>0</v>
@@ -12760,10 +12757,10 @@
         <v>34</v>
       </c>
       <c r="B100" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C100" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D100">
         <v>0</v>
@@ -12867,13 +12864,13 @@
     </row>
     <row r="101" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="B101" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C101" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D101">
         <v>0</v>
@@ -12980,10 +12977,10 @@
         <v>0</v>
       </c>
       <c r="B102" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C102" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D102">
         <v>0</v>
@@ -13090,10 +13087,10 @@
         <v>0</v>
       </c>
       <c r="B103" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C103" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D103">
         <v>0</v>
@@ -13200,10 +13197,10 @@
         <v>0</v>
       </c>
       <c r="B104" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C104" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D104">
         <v>0</v>
@@ -13310,10 +13307,10 @@
         <v>0</v>
       </c>
       <c r="B105" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C105" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D105">
         <v>0</v>
@@ -13420,10 +13417,10 @@
         <v>0</v>
       </c>
       <c r="B106" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C106" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D106">
         <v>0</v>
@@ -13530,10 +13527,10 @@
         <v>0</v>
       </c>
       <c r="B107" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C107" t="s">
-        <v>29</v>
+        <v>209</v>
       </c>
       <c r="D107">
         <v>0</v>
@@ -13640,10 +13637,10 @@
         <v>0</v>
       </c>
       <c r="B108" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C108" t="s">
-        <v>212</v>
+        <v>29</v>
       </c>
       <c r="D108">
         <v>0</v>
@@ -13750,10 +13747,10 @@
         <v>0</v>
       </c>
       <c r="B109" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C109" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D109">
         <v>0</v>
@@ -13857,13 +13854,13 @@
     </row>
     <row r="110" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="B110" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C110" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D110">
         <v>0</v>
@@ -13970,10 +13967,10 @@
         <v>34</v>
       </c>
       <c r="B111" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C111" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D111">
         <v>0</v>
@@ -14080,10 +14077,10 @@
         <v>34</v>
       </c>
       <c r="B112" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C112" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D112">
         <v>0</v>
@@ -14190,7 +14187,7 @@
         <v>34</v>
       </c>
       <c r="B113" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C113" t="s">
         <v>220</v>
@@ -14300,10 +14297,10 @@
         <v>34</v>
       </c>
       <c r="B114" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C114" t="s">
-        <v>193</v>
+        <v>220</v>
       </c>
       <c r="D114">
         <v>0</v>
@@ -14410,10 +14407,10 @@
         <v>34</v>
       </c>
       <c r="B115" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C115" t="s">
-        <v>224</v>
+        <v>193</v>
       </c>
       <c r="D115">
         <v>0</v>
@@ -14520,10 +14517,10 @@
         <v>34</v>
       </c>
       <c r="B116" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C116" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D116">
         <v>0</v>
@@ -14630,10 +14627,10 @@
         <v>34</v>
       </c>
       <c r="B117" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C117" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D117">
         <v>0</v>
@@ -14737,13 +14734,13 @@
     </row>
     <row r="118" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="B118" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C118" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D118">
         <v>0</v>
@@ -14850,10 +14847,10 @@
         <v>0</v>
       </c>
       <c r="B119" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C119" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D119">
         <v>0</v>
@@ -14960,10 +14957,10 @@
         <v>0</v>
       </c>
       <c r="B120" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C120" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D120">
         <v>0</v>
@@ -15067,13 +15064,13 @@
     </row>
     <row r="121" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="B121" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C121" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D121">
         <v>0</v>
@@ -15180,10 +15177,10 @@
         <v>34</v>
       </c>
       <c r="B122" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C122" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D122">
         <v>0</v>
@@ -15290,10 +15287,10 @@
         <v>34</v>
       </c>
       <c r="B123" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C123" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D123">
         <v>0</v>
@@ -15400,10 +15397,10 @@
         <v>34</v>
       </c>
       <c r="B124" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C124" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D124">
         <v>0</v>
@@ -15507,13 +15504,13 @@
     </row>
     <row r="125" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="B125" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C125" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D125">
         <v>0</v>
@@ -15620,10 +15617,10 @@
         <v>0</v>
       </c>
       <c r="B126" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C126" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D126">
         <v>0</v>
@@ -15727,13 +15724,13 @@
     </row>
     <row r="127" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="B127" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C127" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D127">
         <v>0</v>
@@ -15840,10 +15837,10 @@
         <v>34</v>
       </c>
       <c r="B128" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C128" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D128">
         <v>0</v>
@@ -15947,13 +15944,13 @@
     </row>
     <row r="129" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="B129" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C129" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D129">
         <v>0</v>
@@ -16060,10 +16057,10 @@
         <v>0</v>
       </c>
       <c r="B130" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C130" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D130">
         <v>0</v>
@@ -16170,10 +16167,10 @@
         <v>0</v>
       </c>
       <c r="B131" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C131" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D131">
         <v>0</v>
@@ -16280,10 +16277,10 @@
         <v>0</v>
       </c>
       <c r="B132" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C132" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D132">
         <v>0</v>
@@ -16390,10 +16387,10 @@
         <v>0</v>
       </c>
       <c r="B133" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C133" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D133">
         <v>0</v>
@@ -16500,10 +16497,10 @@
         <v>0</v>
       </c>
       <c r="B134" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C134" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D134">
         <v>0</v>
@@ -16610,10 +16607,10 @@
         <v>0</v>
       </c>
       <c r="B135" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C135" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D135">
         <v>0</v>
@@ -16720,10 +16717,10 @@
         <v>0</v>
       </c>
       <c r="B136" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C136" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D136">
         <v>0</v>
@@ -16830,10 +16827,10 @@
         <v>0</v>
       </c>
       <c r="B137" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C137" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D137">
         <v>0</v>
@@ -16940,10 +16937,10 @@
         <v>0</v>
       </c>
       <c r="B138" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C138" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D138">
         <v>0</v>
@@ -17047,13 +17044,13 @@
     </row>
     <row r="139" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="B139" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C139" t="s">
-        <v>224</v>
+        <v>270</v>
       </c>
       <c r="D139">
         <v>0</v>
@@ -17160,10 +17157,10 @@
         <v>34</v>
       </c>
       <c r="B140" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C140" t="s">
-        <v>273</v>
+        <v>224</v>
       </c>
       <c r="D140">
         <v>0</v>
@@ -17270,10 +17267,10 @@
         <v>34</v>
       </c>
       <c r="B141" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C141" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D141">
         <v>0</v>
@@ -17380,10 +17377,10 @@
         <v>34</v>
       </c>
       <c r="B142" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C142" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D142">
         <v>0</v>
@@ -17487,13 +17484,13 @@
     </row>
     <row r="143" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="B143" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C143" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D143">
         <v>0</v>
@@ -17600,10 +17597,10 @@
         <v>0</v>
       </c>
       <c r="B144" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C144" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D144">
         <v>0</v>
@@ -17707,111 +17704,221 @@
     </row>
     <row r="145" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
+        <v>0</v>
+      </c>
+      <c r="B145" t="s">
+        <v>280</v>
+      </c>
+      <c r="C145" t="s">
+        <v>281</v>
+      </c>
+      <c r="D145">
+        <v>0</v>
+      </c>
+      <c r="E145">
+        <v>0</v>
+      </c>
+      <c r="F145">
+        <v>0</v>
+      </c>
+      <c r="G145">
+        <v>0</v>
+      </c>
+      <c r="H145">
+        <v>0</v>
+      </c>
+      <c r="I145">
+        <v>0</v>
+      </c>
+      <c r="J145">
+        <v>0</v>
+      </c>
+      <c r="K145">
+        <v>0</v>
+      </c>
+      <c r="L145">
+        <v>0</v>
+      </c>
+      <c r="M145">
+        <v>0</v>
+      </c>
+      <c r="N145">
+        <v>0</v>
+      </c>
+      <c r="O145">
+        <v>0</v>
+      </c>
+      <c r="P145">
+        <v>0</v>
+      </c>
+      <c r="Q145">
+        <v>0</v>
+      </c>
+      <c r="R145">
+        <v>0</v>
+      </c>
+      <c r="S145">
+        <v>0</v>
+      </c>
+      <c r="T145">
+        <v>0</v>
+      </c>
+      <c r="U145">
+        <v>0</v>
+      </c>
+      <c r="V145">
+        <v>0</v>
+      </c>
+      <c r="W145">
+        <v>0</v>
+      </c>
+      <c r="X145">
+        <v>0</v>
+      </c>
+      <c r="Y145">
+        <v>0</v>
+      </c>
+      <c r="Z145">
+        <v>0</v>
+      </c>
+      <c r="AA145">
+        <v>0</v>
+      </c>
+      <c r="AB145">
+        <v>0</v>
+      </c>
+      <c r="AC145">
+        <v>0</v>
+      </c>
+      <c r="AD145">
+        <v>0</v>
+      </c>
+      <c r="AE145">
+        <v>0</v>
+      </c>
+      <c r="AF145">
+        <v>0</v>
+      </c>
+      <c r="AG145">
+        <v>0</v>
+      </c>
+      <c r="AH145">
+        <v>0</v>
+      </c>
+      <c r="AI145">
+        <v>0</v>
+      </c>
+      <c r="AJ145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
         <v>34</v>
       </c>
-      <c r="B145" t="s">
+      <c r="B146" t="s">
         <v>282</v>
       </c>
-      <c r="C145" t="s">
+      <c r="C146" t="s">
         <v>283</v>
       </c>
-      <c r="D145">
-        <v>0</v>
-      </c>
-      <c r="E145">
-        <v>0</v>
-      </c>
-      <c r="F145">
-        <v>0</v>
-      </c>
-      <c r="G145">
-        <v>0</v>
-      </c>
-      <c r="H145">
-        <v>0</v>
-      </c>
-      <c r="I145">
-        <v>0</v>
-      </c>
-      <c r="J145">
-        <v>0</v>
-      </c>
-      <c r="K145">
-        <v>0</v>
-      </c>
-      <c r="L145">
-        <v>0</v>
-      </c>
-      <c r="M145">
-        <v>0</v>
-      </c>
-      <c r="N145">
-        <v>0</v>
-      </c>
-      <c r="O145">
-        <v>0</v>
-      </c>
-      <c r="P145">
-        <v>0</v>
-      </c>
-      <c r="Q145">
-        <v>0</v>
-      </c>
-      <c r="R145">
-        <v>0</v>
-      </c>
-      <c r="S145">
-        <v>0</v>
-      </c>
-      <c r="T145">
-        <v>0</v>
-      </c>
-      <c r="U145">
-        <v>0</v>
-      </c>
-      <c r="V145">
-        <v>0</v>
-      </c>
-      <c r="W145">
-        <v>0</v>
-      </c>
-      <c r="X145">
-        <v>0</v>
-      </c>
-      <c r="Y145">
-        <v>0</v>
-      </c>
-      <c r="Z145">
-        <v>0</v>
-      </c>
-      <c r="AA145">
-        <v>0</v>
-      </c>
-      <c r="AB145">
-        <v>0</v>
-      </c>
-      <c r="AC145">
-        <v>0</v>
-      </c>
-      <c r="AD145">
-        <v>0</v>
-      </c>
-      <c r="AE145">
-        <v>0</v>
-      </c>
-      <c r="AF145">
-        <v>0</v>
-      </c>
-      <c r="AG145">
-        <v>0</v>
-      </c>
-      <c r="AH145">
-        <v>0</v>
-      </c>
-      <c r="AI145">
-        <v>0</v>
-      </c>
-      <c r="AJ145">
+      <c r="D146">
+        <v>0</v>
+      </c>
+      <c r="E146">
+        <v>0</v>
+      </c>
+      <c r="F146">
+        <v>0</v>
+      </c>
+      <c r="G146">
+        <v>0</v>
+      </c>
+      <c r="H146">
+        <v>0</v>
+      </c>
+      <c r="I146">
+        <v>0</v>
+      </c>
+      <c r="J146">
+        <v>0</v>
+      </c>
+      <c r="K146">
+        <v>0</v>
+      </c>
+      <c r="L146">
+        <v>0</v>
+      </c>
+      <c r="M146">
+        <v>0</v>
+      </c>
+      <c r="N146">
+        <v>0</v>
+      </c>
+      <c r="O146">
+        <v>0</v>
+      </c>
+      <c r="P146">
+        <v>0</v>
+      </c>
+      <c r="Q146">
+        <v>0</v>
+      </c>
+      <c r="R146">
+        <v>0</v>
+      </c>
+      <c r="S146">
+        <v>0</v>
+      </c>
+      <c r="T146">
+        <v>0</v>
+      </c>
+      <c r="U146">
+        <v>0</v>
+      </c>
+      <c r="V146">
+        <v>0</v>
+      </c>
+      <c r="W146">
+        <v>0</v>
+      </c>
+      <c r="X146">
+        <v>0</v>
+      </c>
+      <c r="Y146">
+        <v>0</v>
+      </c>
+      <c r="Z146">
+        <v>0</v>
+      </c>
+      <c r="AA146">
+        <v>0</v>
+      </c>
+      <c r="AB146">
+        <v>0</v>
+      </c>
+      <c r="AC146">
+        <v>0</v>
+      </c>
+      <c r="AD146">
+        <v>0</v>
+      </c>
+      <c r="AE146">
+        <v>0</v>
+      </c>
+      <c r="AF146">
+        <v>0</v>
+      </c>
+      <c r="AG146">
+        <v>0</v>
+      </c>
+      <c r="AH146">
+        <v>0</v>
+      </c>
+      <c r="AI146">
+        <v>0</v>
+      </c>
+      <c r="AJ146">
         <v>0</v>
       </c>
     </row>

--- a/Evaluation_V2/Bareme.xlsx
+++ b/Evaluation_V2/Bareme.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Enseignement\GitHub\PSI\Evaluation_V2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{05DCAD84-BF3B-4585-97C3-D667A042FC2E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C7186C5C-6163-4669-97D5-C4CBC65C03D1}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6945" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1822,8 +1822,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AJ146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="AJ3" sqref="AJ3"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:AJ1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1957,23 +1957,23 @@
         <v>4</v>
       </c>
       <c r="E2">
-        <f t="shared" ref="E2:AJ2" si="0">SUM(E4:E146)</f>
+        <f>SUM(E4:E146)</f>
         <v>5</v>
       </c>
       <c r="F2">
-        <f t="shared" si="0"/>
+        <f>SUM(F4:F146)</f>
         <v>8</v>
       </c>
       <c r="G2">
-        <f t="shared" si="0"/>
+        <f>SUM(G4:G146)</f>
         <v>3</v>
       </c>
       <c r="H2">
-        <f t="shared" si="0"/>
+        <f>SUM(H4:H146)</f>
         <v>6</v>
       </c>
       <c r="I2">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="I2:AJ2" si="0">SUM(I4:I146)</f>
         <v>9</v>
       </c>
       <c r="J2">
